--- a/3_exploratory_data_analysis/1_numpy_linear_algebra and_functions/Matrix_Product.xlsx
+++ b/3_exploratory_data_analysis/1_numpy_linear_algebra and_functions/Matrix_Product.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marie-sophiechenevier/Library/CloudStorage/Dropbox/2024-DataScience/GitHub/2-Jedha_Fullstack/3_exploratory_data_analysis/1_numpy_linear_algebra and_functions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA712CFA-B2AA-A14A-8B1A-AF7C760CBE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830E180F-9770-4347-B87E-214FC28C72B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25160" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{190E631C-069D-DC48-BBFF-8128F3112C23}"/>
+    <workbookView xWindow="-28040" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{190E631C-069D-DC48-BBFF-8128F3112C23}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -527,7 +527,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
